--- a/biology/Zoologie/Collier-de-corail/Collier-de-corail.xlsx
+++ b/biology/Zoologie/Collier-de-corail/Collier-de-corail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia  agestis
 Le Collier-de-corail ou Argus brun (Aricia agestis) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -514,13 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-C'est un petit papillon au dessus marron orné d'une ligne submarginale de taches orange et frange blanche.
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon au dessus marron orné d'une ligne submarginale de taches orange et frange blanche.
 Le revers est beige, les ailes sont ornées d'une ligne de points blancs centrés de noir et d'une ligne submarginale de taches orange.
-Espèce proche
-Il peut être confondu avec l'Argus de l'hélianthème dans l'aire de répartition de ce dernier.
-Chenille
-La chenille, petite et trapue, possède une tête rétractile noire et un corps vert avec une ligne dorsale pourpre d'où partent des traits obliques vert foncé et sur les flancs une ligne pourpre[1].
 </t>
         </is>
       </c>
@@ -546,16 +559,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole d'avril à octobre, en une à trois générations en fonction de la latitude.
-Il hiverne à l'état de chenille. Les chenilles sont soignées par les fourmis Lasius niger, Lasius alienus, Lasius flavus et Myrmica sabuteli[2].
-Plantes hôtes
-Ses plantes hôtes sont Helianthemum nummularium, diverses géraniacées dont Geranium tuberosum, Geranium sanguineum, mais aussi des Erodium dont Erodium cicutarium et Erodium ciconium[2].
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être confondu avec l'Argus de l'hélianthème dans l'aire de répartition de ce dernier.
 </t>
         </is>
       </c>
@@ -581,15 +600,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Collier-de-corail est présent en Afrique du Nord, dans toute l'Europe (sauf le Nord de l'Angleterre et en Scandinavie) et jusqu'à la Sibérie.
-Il est répandu dans toute la France métropolitaine[3].
-Biotope
-Il habite les landes et les friches.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, petite et trapue, possède une tête rétractile noire et un corps vert avec une ligne dorsale pourpre d'où partent des traits obliques vert foncé et sur les flancs une ligne pourpre.
 </t>
         </is>
       </c>
@@ -615,23 +637,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aricia  agestis ([Denis &amp; Schiffermüller], 1775)
-Synonymes
-Plebejus agestis, Papilio astrarche (Bergsträsser, 1779), Papilio medon[4]
-Noms vernaculaires
-en français : le Collier-de-corail, l’Argus brun
-en anglais : Brown argus
-en espagnol : Morena Serrana
-Sous-espèces
-Aricia agestis agestis dans le sud et le centre de l'Europe.
-Aricia agestis azerbaidzhana Obraztsov, 1935, au Caucase.
-Aricia agestis calida Chavigneire, en Sicile, Italie et Asie Mineure.
-Aricia agestis nazira (Moore, 1865) dans l'Himalaya[5]</t>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole d'avril à octobre, en une à trois générations en fonction de la latitude.
+Il hiverne à l'état de chenille. Les chenilles sont soignées par les fourmis Lasius niger, Lasius alienus, Lasius flavus et Myrmica sabuteli.
+</t>
         </is>
       </c>
     </row>
@@ -656,13 +675,273 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Helianthemum nummularium, diverses géraniacées dont Geranium tuberosum, Geranium sanguineum, mais aussi des Erodium dont Erodium cicutarium et Erodium ciconium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Collier-de-corail est présent en Afrique du Nord, dans toute l'Europe (sauf le Nord de l'Angleterre et en Scandinavie) et jusqu'à la Sibérie.
+Il est répandu dans toute la France métropolitaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les landes et les friches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aricia  agestis ([Denis &amp; Schiffermüller], 1775)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plebejus agestis, Papilio astrarche (Bergsträsser, 1779), Papilio medon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>en français : le Collier-de-corail, l’Argus brun
+en anglais : Brown argus
+en espagnol : Morena Serrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aricia agestis agestis dans le sud et le centre de l'Europe.
+Aricia agestis azerbaidzhana Obraztsov, 1935, au Caucase.
+Aricia agestis calida Chavigneire, en Sicile, Italie et Asie Mineure.
+Aricia agestis nazira (Moore, 1865) dans l'Himalaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Collier-de-corail et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Pas de statut de protection particulier.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
